--- a/biology/Botanique/Fragaria_moschata/Fragaria_moschata.xlsx
+++ b/biology/Botanique/Fragaria_moschata/Fragaria_moschata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fragaria moschata
 Le fraisier musqué (Fragaria moschata), ou Capronier, est une plante herbacée à petit fruit du genre Fragaria et de la famille des Rosaceae.
@@ -513,7 +525,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est européenne.
 </t>
@@ -544,7 +558,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce a été largement cultivée entre 1400 et 1850 pour ses fruits. C'est la première espèce de Fragaria ayant reçu un nom de cultivar avec Le Chapiron en 1576. Du nom de cette variété est venu le nom capron utilisé pour l'espèce. De nos jours, il n'y a plus de culture commerciale car son rendement est bien moindre que celui de la fraise des jardins mais de nombreux particuliers la cultivent pour la consommation familiale et quelques sélectionneurs s'y intéressent encore.
 </t>
@@ -575,7 +591,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pousse généralement en sous-bois.
 </t>
@@ -606,7 +624,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il est trioïque.
 Les fruits sont plus gros que Fragaria vesca, ils sont rouges à chair blanc-jaune, à l'arôme musqué.
@@ -615,9 +635,43 @@
 Fragaria moschata f. rubriflora
 Fragaria moschata subtaxon dioica
 Fragaria moschata subvar calycina
-Fragaria moschata subvar rubriflora
-Variétés
-Quelques cultivars :
+Fragaria moschata subvar rubriflora</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fragaria_moschata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fragaria_moschata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Quelques cultivars :
 Hermaphrodite
 ‘Askungen’ - (syn. ‘Oke’, ‘Cinderella’) - Sélection suédoise à partir de matériel sauvage
 ‘Capron royal’ - Fruit coniques, quelquefois remontant. C'est en fait un groupe de clones proches les uns des autres
@@ -644,31 +698,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Fragaria_moschata</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fragaria_moschata</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est la seule espèce du genre à être hexaploïde (2n=6x=42).
 Cette exception s’expliquerait par le fait qu'il serait un allopolyploïde issu de l'hybridation naturelle d'un vesca tétraploïde avec F.viridis ou F. nubicola
@@ -677,37 +733,6 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Fragaria_moschata</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fragaria_moschata</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Culture</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est tolérant à l'ombre au froid et aux sols humides et très résistant aux maladies foliaires
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
@@ -729,10 +754,45 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est tolérant à l'ombre au froid et aux sols humides et très résistant aux maladies foliaires
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fragaria_moschata</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fragaria_moschata</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Fragaria elatior Ehrh.
 Potentilla moschata (Weston) Prantl</t>
